--- a/Calendario.xlsx
+++ b/Calendario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juanes\Desktop\Universidad\Semestre 5\Info II\Me programo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A2E6C15-2C66-4CB5-9F51-D2F6FC701281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09058334-02A2-43D4-A124-1DE08A81EDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9D17C9A2-B931-4DFB-B1F7-2D8718211806}"/>
   </bookViews>
@@ -35,9 +35,86 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+  <si>
+    <t>6:00 - 7:00</t>
+  </si>
+  <si>
+    <t>7:00 - 8:00</t>
+  </si>
+  <si>
+    <t>8:00 - 9:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hora </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lunes </t>
+  </si>
+  <si>
+    <t>Martes</t>
+  </si>
+  <si>
+    <t>Miércoles</t>
+  </si>
+  <si>
+    <t>Jueves</t>
+  </si>
+  <si>
+    <t>Viernes</t>
+  </si>
+  <si>
+    <t>Sábado</t>
+  </si>
+  <si>
+    <t>Domingo</t>
+  </si>
+  <si>
+    <t>10:00 - 11:00</t>
+  </si>
+  <si>
+    <t>9:00 - 10:00</t>
+  </si>
+  <si>
+    <t>11:00 - 12:00</t>
+  </si>
+  <si>
+    <t>1:00 - 2:00</t>
+  </si>
+  <si>
+    <t>12:00 - 1:00</t>
+  </si>
+  <si>
+    <t>2:00 - 3:00</t>
+  </si>
+  <si>
+    <t>3:00 - 4:00</t>
+  </si>
+  <si>
+    <t>4:00 - 5:00</t>
+  </si>
+  <si>
+    <t>5:00 - 6:00</t>
+  </si>
+  <si>
+    <t>Informática II</t>
+  </si>
+  <si>
+    <t>Inglés V</t>
+  </si>
+  <si>
+    <t>Cálculo Integral</t>
+  </si>
+  <si>
+    <t>Física Mecánica</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,13 +122,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -66,8 +173,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,12 +507,170 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5FBA02-CCCC-453F-AB4C-2B26A83F3E8C}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="2:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E6:E7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Calendario.xlsx
+++ b/Calendario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juanes\Desktop\Universidad\Semestre 5\Info II\Me programo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09058334-02A2-43D4-A124-1DE08A81EDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33233295-9F5E-44B0-9947-E678E42186D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9D17C9A2-B931-4DFB-B1F7-2D8718211806}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
   <si>
     <t>6:00 - 7:00</t>
   </si>
@@ -108,6 +108,30 @@
   </si>
   <si>
     <t>Física Mecánica</t>
+  </si>
+  <si>
+    <t>Repaso</t>
+  </si>
+  <si>
+    <t>Mecánica</t>
+  </si>
+  <si>
+    <t>Integral</t>
+  </si>
+  <si>
+    <t>Leer Guía</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repaso </t>
+  </si>
+  <si>
+    <t>Semana 13  - 19 de Feb</t>
+  </si>
+  <si>
+    <t>Trabajar en</t>
+  </si>
+  <si>
+    <t>Prática1(Info)</t>
   </si>
 </sst>
 </file>
@@ -129,7 +153,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,6 +184,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDECF5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -173,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -193,12 +235,28 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFBDECF5"/>
+      <color rgb="FFA5E4F1"/>
+      <color rgb="FF99E1EF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -507,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5FBA02-CCCC-453F-AB4C-2B26A83F3E8C}">
-  <dimension ref="B2:I18"/>
+  <dimension ref="B1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,6 +577,18 @@
     <col min="3" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+    </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -545,7 +615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -564,12 +634,21 @@
         <v>12</v>
       </c>
       <c r="D5" s="3"/>
+      <c r="E5" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="F5" s="3"/>
+      <c r="G5" s="8" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="C6" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="D6" s="4" t="s">
         <v>21</v>
       </c>
@@ -581,16 +660,31 @@
       </c>
       <c r="G6" s="6" t="s">
         <v>23</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="6"/>
       <c r="F7" s="4"/>
       <c r="G7" s="6"/>
+      <c r="H7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
@@ -601,16 +695,31 @@
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="C9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="C10" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="E10" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="F10" s="5" t="s">
         <v>22</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -618,6 +727,9 @@
         <v>17</v>
       </c>
       <c r="D11" s="5"/>
+      <c r="E11" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -629,13 +741,25 @@
       <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="C13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="14" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C14" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="D14" s="3" t="s">
         <v>20</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -659,8 +783,9 @@
       <c r="B18" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="G6:G7"/>
+    <mergeCell ref="B1:I1"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="D10:D11"/>

--- a/Calendario.xlsx
+++ b/Calendario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juanes\Desktop\Universidad\Semestre 5\Info II\Me programo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33233295-9F5E-44B0-9947-E678E42186D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF459BCB-E2E2-4C2B-B663-ED9A32655053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9D17C9A2-B931-4DFB-B1F7-2D8718211806}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="36">
   <si>
     <t>6:00 - 7:00</t>
   </si>
@@ -132,6 +132,18 @@
   </si>
   <si>
     <t>Prática1(Info)</t>
+  </si>
+  <si>
+    <t>Semana 20  - 26 de Feb</t>
+  </si>
+  <si>
+    <t>Preparar</t>
+  </si>
+  <si>
+    <t>Parcial Cálculo</t>
+  </si>
+  <si>
+    <t>Parcial Mecánica</t>
   </si>
 </sst>
 </file>
@@ -153,7 +165,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,6 +214,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0BAF8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -215,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -244,6 +262,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -252,6 +273,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFE0BAF8"/>
+      <color rgb="FFFDB5B5"/>
       <color rgb="FFBDECF5"/>
       <color rgb="FFA5E4F1"/>
       <color rgb="FF99E1EF"/>
@@ -565,19 +588,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5FBA02-CCCC-453F-AB4C-2B26A83F3E8C}">
-  <dimension ref="B1:I18"/>
+  <dimension ref="B1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="9" width="14" customWidth="1"/>
+    <col min="14" max="15" width="13.85546875" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" customWidth="1"/>
+    <col min="17" max="17" width="13.85546875" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" customWidth="1"/>
+    <col min="19" max="20" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="s">
         <v>29</v>
       </c>
@@ -588,8 +616,18 @@
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+    </row>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
@@ -614,11 +652,36 @@
       <c r="I2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -628,8 +691,17 @@
       <c r="F4" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
@@ -641,8 +713,19 @@
       <c r="G5" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="3"/>
+      <c r="P5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
@@ -667,8 +750,32 @@
       <c r="I6" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
@@ -685,13 +792,32 @@
       <c r="I7" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="4"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
@@ -701,8 +827,20 @@
       <c r="I9" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="S9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
@@ -721,8 +859,29 @@
       <c r="I10" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
@@ -731,13 +890,24 @@
         <v>25</v>
       </c>
       <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" s="5"/>
+      <c r="P11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="5"/>
+    </row>
+    <row r="12" spans="2:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M12" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
@@ -747,8 +917,17 @@
       <c r="E13" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
@@ -761,29 +940,62 @@
       <c r="E14" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="2:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="2:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M17" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="20">
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="O14:O16"/>
+    <mergeCell ref="M1:T1"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="D4:D5"/>

--- a/Calendario.xlsx
+++ b/Calendario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juanes\Desktop\Universidad\Semestre 5\Info II\Me programo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF459BCB-E2E2-4C2B-B663-ED9A32655053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34EC661-853F-4CFE-98D5-E25446D634E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9D17C9A2-B931-4DFB-B1F7-2D8718211806}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="38">
   <si>
     <t>6:00 - 7:00</t>
   </si>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t>Parcial Mecánica</t>
+  </si>
+  <si>
+    <t>Semana 27 Feb - 5 Mar</t>
+  </si>
+  <si>
+    <t>Prática2(Info)</t>
   </si>
 </sst>
 </file>
@@ -233,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -263,6 +269,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -588,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5FBA02-CCCC-453F-AB4C-2B26A83F3E8C}">
-  <dimension ref="B1:T18"/>
+  <dimension ref="B1:AE18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,9 +612,10 @@
     <col min="17" max="17" width="13.85546875" customWidth="1"/>
     <col min="18" max="18" width="14.28515625" customWidth="1"/>
     <col min="19" max="20" width="13.85546875" customWidth="1"/>
+    <col min="25" max="31" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="s">
         <v>29</v>
       </c>
@@ -626,8 +636,18 @@
       <c r="R1" s="9"/>
       <c r="S1" s="9"/>
       <c r="T1" s="9"/>
-    </row>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="X1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+    </row>
+    <row r="2" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
@@ -676,12 +696,37 @@
       <c r="T2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="2:20" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:31" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X3" s="1"/>
+    </row>
+    <row r="4" spans="2:31" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -700,8 +745,17 @@
       <c r="Q4" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="2:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:31" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
@@ -724,8 +778,19 @@
       <c r="R5" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="2:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:31" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
@@ -774,8 +839,32 @@
       <c r="T6" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="2:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:31" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
@@ -808,16 +897,35 @@
       <c r="T7" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="2:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE7" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="2:31" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="2:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:31" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
@@ -839,8 +947,18 @@
       <c r="T9" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="2:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:31" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
@@ -880,8 +998,27 @@
       <c r="T10" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="2:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:31" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
@@ -898,16 +1035,27 @@
         <v>25</v>
       </c>
       <c r="Q11" s="5"/>
-    </row>
-    <row r="12" spans="2:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB11" s="5"/>
+    </row>
+    <row r="12" spans="2:31" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="2:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X12" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:31" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
@@ -926,8 +1074,17 @@
       <c r="P13" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="2:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA13" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:31" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
@@ -952,8 +1109,20 @@
       <c r="P14" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="2:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA14" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="2:31" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
@@ -962,8 +1131,12 @@
         <v>1</v>
       </c>
       <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="2:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="3"/>
+    </row>
+    <row r="16" spans="2:31" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
@@ -972,23 +1145,40 @@
         <v>2</v>
       </c>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="2:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X17" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="30">
+    <mergeCell ref="Z10:Z11"/>
+    <mergeCell ref="AB10:AB11"/>
+    <mergeCell ref="Z14:Z16"/>
     <mergeCell ref="O10:O11"/>
     <mergeCell ref="Q10:Q11"/>
     <mergeCell ref="O14:O16"/>
+    <mergeCell ref="X1:AE1"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AC6:AC7"/>
     <mergeCell ref="M1:T1"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="Q4:Q5"/>
